--- a/data/describe/few_shot_QandA_from_text.xlsx
+++ b/data/describe/few_shot_QandA_from_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA8BD04-A89D-40FC-90A9-BAD11F0A43E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EF085-0118-4278-AB00-B839F1F8D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52455" yWindow="1590" windowWidth="21090" windowHeight="16995" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,11 +48,16 @@
     <t>Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience. People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs. Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences. Conversely, those with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded. Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait.</t>
   </si>
   <si>
-    <t>[{"Question": "What is openness to experience?",  "Answer": "Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience."}, 
-{"Question": "What characteristics do people with high openness to experience typically have?", "Answer": "People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs. "},
-{"Question": "How might people with high openness to experience be perceived?", "Answer": "Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences. "}
-{"Question": "How might people with low openness to experience be perceived?", "Answer": "People with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded."}
-{"Question": "What is the current scientific consensus on the biological basis of openness to experience?", "Answer": " Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait."}]</t>
+    <t>Question: What is openness to experience?  
+Answer: Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience.
+Question: What characteristics do people with high openness to experience typically have?
+Answer: People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs.
+Question: How might people with high openness to experience be perceived?
+Answer: Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences. 
+Question: How might people with low openness to experience be perceived?
+Answer: People with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded.
+Question: What is the current scientific consensus on the biological basis of openness to experience?
+Answer: Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait.</t>
   </si>
 </sst>
 </file>
@@ -417,7 +422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A39C770-6B8C-4FC7-97FD-94B205744AFD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/data/describe/few_shot_QandA_from_text.xlsx
+++ b/data/describe/few_shot_QandA_from_text.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaca253\Documents\datomatisation\datomatisation-dev\data\describe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EF085-0118-4278-AB00-B839F1F8D68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8E335E-1E1B-424C-A016-94DD2B6AB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
+    <workbookView xWindow="40185" yWindow="2985" windowWidth="38700" windowHeight="15225" xr2:uid="{75A2F0CC-120C-46DD-B882-D3F79246B1DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>User</t>
   </si>
@@ -48,16 +48,33 @@
     <t>Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience. People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs. Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences. Conversely, those with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded. Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait.</t>
   </si>
   <si>
-    <t>Question: What is openness to experience?  
-Answer: Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience.
-Question: What characteristics do people with high openness to experience typically have?
-Answer: People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs.
-Question: How might people with high openness to experience be perceived?
-Answer: Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences. 
-Question: How might people with low openness to experience be perceived?
-Answer: People with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded.
-Question: What is the current scientific consensus on the biological basis of openness to experience?
-Answer: Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait.</t>
+    <t>The World Values Surveys were designed to test the hypothesis that economic and technological changes are transforming the basic values and motivations of the publics of industrialized societies. The surveys build on the European Values Study (EVS) first carried out in 1981. The EVS was conducted under the aegis of Jan Kerkhofs and Ruud de Moor and continues to be based in the Netherlands at the Tilburg University. The 1981 study was largely limited to developed societies, but interest in this project spread so widely that surveys were carried out in more than twenty countries, located on all six inhabited continents. Ronald Inglehart of the University of Michigan played a leading role in extending these surveys to be carried out in countries around the world. Today the network includes hundreds of social scientist from more than 100 countries.</t>
+  </si>
+  <si>
+    <t>"Question": "What was the purpose of the World Values Surveys?"
+"Answer": "The World Values Surveys were designed to test the hypothesis that economic and technological changes are transforming the basic values and motivations of the publics of industrialized societies."
+"Question": "On what study are the World Values Surveys based?"
+"Answer": "The surveys build on the European Values Study (EVS) first carried out in 1981."
+"Question": "Who conducted the original European Values Study?"
+"Answer": "The EVS was conducted under the aegis of Jan Kerkhofs and Ruud de Moor and continues to be based in the Netherlands at Tilburg University."
+"Question": "How widespread was the 1981 European Values Study?",
+"Answer": "The 1981 study was largely limited to developed societies, but interest in the project spread so widely that surveys were carried out in more than twenty countries on all six inhabited continents."
+"Question": "Who played a leading role in extending the World Values Surveys globally?",
+"Answer": "Ronald Inglehart of the University of Michigan played a leading role in extending these surveys to be carried out in countries around the world."
+"Question": "How extensive is the network of the World Values Surveys today?",
+"Answer": "Today the network includes hundreds of social scientists from more than 100 countries."</t>
+  </si>
+  <si>
+    <t>"Question: "What is openness to experience?"  
+"Answer": "Openness to experience is a general appreciation for art, emotion, adventure, unusual ideas, imagination, curiosity, and variety of experience."
+"Question": "What characteristics do people with high openness to experience typically have?"
+"Answer": "People who are open to experience are intellectually curious, open to emotion, sensitive to beauty, and willing to try new things. They tend to be, when compared to closed people, more creative and more aware of their feelings. They are also more likely to hold unconventional beliefs."
+"Question": "How might people with high openness to experience be perceived?"
+"Answer": "Open people can be perceived as unpredictable or lacking focus, and more likely to engage in risky behaviour or drug-taking. Moreover, individuals with high openness are said to pursue self-actualisation specifically by seeking out intense, euphoric experiences." 
+"Question: "How might people with low openness to experience be perceived?"
+"Answer": "People with low openness want to be fulfilled by persevering and are characterised as pragmatic and data-driven – sometimes even perceived to be dogmatic and closed-minded."
+"Question": "What is the current scientific consensus on the biological basis of openness to experience?"
+"Answer": "Some disagreement remains about how to interpret and contextualise the openness factor as there is a lack of biological support for this particular trait. Openness has not shown a significant association with any brain regions as opposed to the other four traits which did when using brain imaging to detect changes in volume associated with each trait."</t>
   </si>
 </sst>
 </file>
@@ -422,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A39C770-6B8C-4FC7-97FD-94B205744AFD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -445,12 +462,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="224" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
